--- a/bitstrip_maker.xlsx
+++ b/bitstrip_maker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\HTML\MazeGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37ABBE6D-96B8-4635-A0C3-7705ADCFB960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93C16F1-15AA-426D-BA17-2685F1BF4EB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14625" yWindow="1170" windowWidth="21600" windowHeight="11835" xr2:uid="{A69C5BF0-278B-4091-9E0B-7248E0DA0CF6}"/>
+    <workbookView xWindow="0" yWindow="1170" windowWidth="21600" windowHeight="11835" xr2:uid="{A69C5BF0-278B-4091-9E0B-7248E0DA0CF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="3">
   <si>
     <t>X</t>
   </si>
   <si>
     <t>Bitstrip:</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -497,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D120B678-181D-4357-8E4D-E95F4465E681}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,17 +556,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="D3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="H3" s="5"/>
       <c r="I3" s="6" t="s">
         <v>0</v>
@@ -577,15 +582,9 @@
       <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
         <v>0</v>
       </c>
@@ -597,21 +596,13 @@
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="6"/>
     </row>
@@ -623,15 +614,9 @@
       <c r="C6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
         <v>0</v>
       </c>
@@ -645,17 +630,19 @@
         <v>0</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="D7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="6" t="s">
         <v>0</v>
@@ -705,11 +692,11 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>IF(ISBLANK(A1), "E", "T")</f>
+        <f>IF(ISBLANK(A1), "E", IF(A1="X", "T", A1))</f>
         <v>T</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" ref="B11:I11" si="0">IF(ISBLANK(B1), "E", "T")</f>
+        <f t="shared" ref="B11:I11" si="0">IF(ISBLANK(B1), "E", IF(B1="X", "T", B1))</f>
         <v>T</v>
       </c>
       <c r="C11" t="str">
@@ -743,7 +730,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f t="shared" ref="A12:I12" si="1">IF(ISBLANK(A2), "E", "T")</f>
+        <f t="shared" ref="A12:I12" si="1">IF(ISBLANK(A2), "E", IF(A2="X", "T", A2))</f>
         <v>T</v>
       </c>
       <c r="B12" t="str">
@@ -781,7 +768,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f t="shared" ref="A13:I13" si="2">IF(ISBLANK(A3), "E", "T")</f>
+        <f t="shared" ref="A13:I13" si="2">IF(ISBLANK(A3), "E", IF(A3="X", "T", A3))</f>
         <v>T</v>
       </c>
       <c r="B13" t="str">
@@ -790,7 +777,7 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" si="2"/>
-        <v>E</v>
+        <v>T</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="2"/>
@@ -798,7 +785,7 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" si="2"/>
-        <v>T</v>
+        <v>E</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="2"/>
@@ -806,7 +793,7 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="2"/>
-        <v>E</v>
+        <v>T</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="2"/>
@@ -819,7 +806,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <f t="shared" ref="A14:I14" si="3">IF(ISBLANK(A4), "E", "T")</f>
+        <f t="shared" ref="A14:I14" si="3">IF(ISBLANK(A4), "E", IF(A4="X", "T", A4))</f>
         <v>T</v>
       </c>
       <c r="B14" t="str">
@@ -832,15 +819,15 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" si="3"/>
-        <v>T</v>
+        <v>E</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="3"/>
-        <v>T</v>
+        <v>E</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="3"/>
-        <v>T</v>
+        <v>E</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="3"/>
@@ -857,7 +844,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f t="shared" ref="A15:I15" si="4">IF(ISBLANK(A5), "E", "T")</f>
+        <f t="shared" ref="A15:I15" si="4">IF(ISBLANK(A5), "E", IF(A5="X", "T", A5))</f>
         <v>E</v>
       </c>
       <c r="B15" t="str">
@@ -866,23 +853,23 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" si="4"/>
-        <v>T</v>
+        <v>E</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="4"/>
-        <v>T</v>
+        <v>E</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="4"/>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="4"/>
-        <v>T</v>
+        <v>E</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="4"/>
-        <v>T</v>
+        <v>E</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="4"/>
@@ -895,7 +882,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f t="shared" ref="A16:I16" si="5">IF(ISBLANK(A6), "E", "T")</f>
+        <f t="shared" ref="A16:I16" si="5">IF(ISBLANK(A6), "E", IF(A6="X", "T", A6))</f>
         <v>T</v>
       </c>
       <c r="B16" t="str">
@@ -908,15 +895,15 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" si="5"/>
-        <v>T</v>
+        <v>E</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="5"/>
-        <v>T</v>
+        <v>E</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="5"/>
-        <v>T</v>
+        <v>E</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="5"/>
@@ -933,7 +920,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f t="shared" ref="A17:I17" si="6">IF(ISBLANK(A7), "E", "T")</f>
+        <f t="shared" ref="A17:I17" si="6">IF(ISBLANK(A7), "E", IF(A7="X", "T", A7))</f>
         <v>T</v>
       </c>
       <c r="B17" t="str">
@@ -942,7 +929,7 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" si="6"/>
-        <v>E</v>
+        <v>T</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="6"/>
@@ -950,7 +937,7 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" si="6"/>
-        <v>T</v>
+        <v>E</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="6"/>
@@ -958,7 +945,7 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="6"/>
-        <v>E</v>
+        <v>T</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="6"/>
@@ -971,7 +958,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f t="shared" ref="A18:I18" si="7">IF(ISBLANK(A8), "E", "T")</f>
+        <f t="shared" ref="A18:I18" si="7">IF(ISBLANK(A8), "E", IF(A8="X", "T", A8))</f>
         <v>T</v>
       </c>
       <c r="B18" t="str">
@@ -1009,7 +996,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f t="shared" ref="A19:I19" si="8">IF(ISBLANK(A9), "E", "T")</f>
+        <f t="shared" ref="A19:I19" si="8">IF(ISBLANK(A9), "E", IF(A9="X", "T", A9))</f>
         <v>T</v>
       </c>
       <c r="B19" t="str">
@@ -1060,31 +1047,31 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="9"/>
-        <v>TEETTTEET</v>
+        <v>TETTETTET</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="9"/>
-        <v>TETTTTTET</v>
+        <v>TETEEETET</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="9"/>
-        <v>EETTTTTEE</v>
+        <v>EEEEPEEEE</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="9"/>
-        <v>TETTTTTET</v>
+        <v>TETEEETET</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="9"/>
-        <v>TEETTTEET</v>
+        <v>TETTETTET</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1107,7 +1094,7 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>_xlfn.TEXTJOIN("", FALSE, A21:A29)</f>
-        <v>TTTTETTTTTEEEEEEETTEETTTEETTETTTTTETEETTTTTEETETTTTTETTEETTTEETTEEEEEEETTTTTETTTT</v>
+        <v>TTTTETTTTTEEEEEEETTETTETTETTETEEETETEEEEPEEEETETEEETETTETTETTETTEEEEEEETTTTTETTTT</v>
       </c>
     </row>
   </sheetData>
